--- a/Traditional CV/Unprocessed + Transform/Transform/T_EveryNetwork_Unprocessed_7Features_Transform.xlsx
+++ b/Traditional CV/Unprocessed + Transform/Transform/T_EveryNetwork_Unprocessed_7Features_Transform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicalvarez/Documents/projectcode/cs791/Traditional CV/Unprocessed + Transform/Transform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44B901C2-F3A6-D743-AC1C-B84ABF725BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EADF226-8E1E-9846-B003-C0C2415DB83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="6400" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="1340" yWindow="1160" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="EveryFileIndividual_Untuned_Mod" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,19 @@
     <t>b100d100.csv</t>
   </si>
   <si>
-    <t>RandomForestClassifier()</t>
+    <t>RandomForestClassifier</t>
   </si>
   <si>
-    <t>GradientBoostingClassifier()</t>
+    <t>XGBClassifier</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier()</t>
+    <t>DecisionTreeClassifier</t>
   </si>
   <si>
-    <t>MLPClassifier()</t>
+    <t>MLPClassifier</t>
   </si>
   <si>
-    <t>LinearSVC()</t>
+    <t>LinearSVC</t>
   </si>
   <si>
     <t>b5000d10.csv</t>
@@ -92,9 +92,6 @@
     <t>dt</t>
   </si>
   <si>
-    <t>gb</t>
-  </si>
-  <si>
     <t>svc</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>rf</t>
+  </si>
+  <si>
+    <t>xgb</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,21 +972,21 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.86592592592592599</v>
+        <v>0.86555555555555497</v>
       </c>
       <c r="D2">
-        <v>1.5652256747492901E-2</v>
+        <v>2.4971863453389E-2</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.91242798353909427</v>
+        <v>0.91067489711934102</v>
       </c>
       <c r="H2">
         <f>AVERAGE(D2:D46)</f>
-        <v>1.5200726051784862E-2</v>
+        <v>1.3726613233507672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -997,21 +997,21 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.93629629629629596</v>
+        <v>0.938888888888888</v>
       </c>
       <c r="D3">
-        <v>1.8907035582370699E-2</v>
+        <v>1.93161552746745E-2</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C47:C91)</f>
-        <v>0.92747325102880596</v>
+        <v>0.72041152263374442</v>
       </c>
       <c r="H3">
         <f>AVERAGE(D47:D91)</f>
-        <v>1.3028565077361167E-2</v>
+        <v>3.7063610267102205E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1022,21 +1022,21 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.94037037037036997</v>
+        <v>0.93851851851851797</v>
       </c>
       <c r="D4">
-        <v>1.19670329047433E-2</v>
+        <v>1.1135775095091E-2</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4">
         <f>AVERAGE(C92:C136)</f>
-        <v>0.71699588477366216</v>
+        <v>0.81710288065843584</v>
       </c>
       <c r="H4">
         <f>AVERAGE(D92:D136)</f>
-        <v>3.5998366358979711E-2</v>
+        <v>1.4445425577758327E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,21 +1047,21 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.87518518518518496</v>
+        <v>0.87444444444444402</v>
       </c>
       <c r="D5">
-        <v>2.4834154984059501E-2</v>
+        <v>2.09644025156813E-2</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5">
-        <f>AVERAGE(C137:C181)</f>
-        <v>0.80581893004115157</v>
+        <f>AVERAGE(C141:C185)</f>
+        <v>0.92137448559670776</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(D137:D181)</f>
-        <v>1.3877577386903234E-2</v>
+        <f>AVERAGE(D141:D185)</f>
+        <v>1.4549711547886623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,21 +1072,21 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.91222222222222205</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D6">
-        <v>9.1174323148823493E-3</v>
+        <v>1.5826563421645502E-2</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6">
         <f>AVERAGE(C186:C230)</f>
-        <v>0.92516872427983532</v>
+        <v>0.92370370370370314</v>
       </c>
       <c r="H6">
         <f>AVERAGE(D186:D230)</f>
-        <v>1.4903959402868466E-2</v>
+        <v>1.3760406706433227E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.95518518518518503</v>
+        <v>0.95962962962962906</v>
       </c>
       <c r="D7">
-        <v>9.4716384092921792E-3</v>
+        <v>8.3147941928309703E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1111,10 +1111,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.91037037037037005</v>
+        <v>0.91481481481481397</v>
       </c>
       <c r="D8">
-        <v>1.35375310240718E-2</v>
+        <v>9.5867993374405894E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.94037037037036997</v>
+        <v>0.93259259259259197</v>
       </c>
       <c r="D9">
-        <v>6.4576280645047201E-3</v>
+        <v>9.2666637060717007E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.87629629629629602</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="D10">
-        <v>2.2079790460428E-2</v>
+        <v>1.15351196314054E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.86185185185185098</v>
+        <v>0.86592592592592499</v>
       </c>
       <c r="D11">
-        <v>1.48887046238827E-2</v>
+        <v>1.9619144649109601E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1167,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>0.93592592592592605</v>
+        <v>0.93814814814814795</v>
       </c>
       <c r="D12">
-        <v>1.9123452805074902E-2</v>
+        <v>1.9159284676114802E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0.93666666666666598</v>
+        <v>0.938888888888888</v>
       </c>
       <c r="D13">
-        <v>1.3010494866852001E-2</v>
+        <v>1.5360326928390801E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1195,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0.88037037037037003</v>
+        <v>0.875925925925926</v>
       </c>
       <c r="D14">
-        <v>2.5676044462869599E-2</v>
+        <v>1.80686087668896E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,10 +1209,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0.90925925925925899</v>
+        <v>0.90074074074073995</v>
       </c>
       <c r="D15">
-        <v>1.2115131284293401E-2</v>
+        <v>1.2483184849150101E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1223,10 +1223,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>0.95333333333333303</v>
+        <v>0.96</v>
       </c>
       <c r="D16">
-        <v>1.0631629699560901E-2</v>
+        <v>7.9951974610825201E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.91370370370370302</v>
+        <v>0.91407407407407404</v>
       </c>
       <c r="D17">
-        <v>2.0872596746081998E-2</v>
+        <v>1.05148663456136E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1251,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>0.94037037037036997</v>
+        <v>0.93185185185185104</v>
       </c>
       <c r="D18">
-        <v>9.5437768346111999E-3</v>
+        <v>9.2518488865161192E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>0.87851851851851803</v>
+        <v>0.86370370370370297</v>
       </c>
       <c r="D19">
-        <v>2.0773783203526099E-2</v>
+        <v>7.9951974610825496E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>0.86370370370370297</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="D20">
-        <v>1.6670781385076799E-2</v>
+        <v>2.33362725955901E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1293,10 +1293,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.93592592592592505</v>
+        <v>0.938888888888888</v>
       </c>
       <c r="D21">
-        <v>1.57831672241944E-2</v>
+        <v>1.9245008972987501E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1307,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.93814814814814795</v>
+        <v>0.94518518518518502</v>
       </c>
       <c r="D22">
-        <v>1.3486771448913399E-2</v>
+        <v>9.2666637060717198E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1321,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0.87703703703703695</v>
+        <v>0.87777777777777699</v>
       </c>
       <c r="D23">
-        <v>2.29987773277926E-2</v>
+        <v>2.2437231453127301E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1335,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0.91074074074073996</v>
+        <v>0.90444444444444405</v>
       </c>
       <c r="D24">
-        <v>1.30631052507765E-2</v>
+        <v>1.32300526662901E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1349,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>0.95962962962962906</v>
+        <v>0.95740740740740704</v>
       </c>
       <c r="D25">
-        <v>4.7430549906909902E-3</v>
+        <v>9.5867993374406102E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.90407407407407403</v>
+        <v>0.91518518518518499</v>
       </c>
       <c r="D26">
-        <v>1.6538602638345199E-2</v>
+        <v>7.8915836120971999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1377,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0.94333333333333302</v>
+        <v>0.93629629629629596</v>
       </c>
       <c r="D27">
-        <v>5.1851851851851798E-3</v>
+        <v>6.2635313056621303E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>0.88148148148148098</v>
+        <v>0.86296296296296204</v>
       </c>
       <c r="D28">
-        <v>2.330686329267E-2</v>
+        <v>1.1355340530930199E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1405,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>0.86111111111111105</v>
+        <v>0.86407407407407399</v>
       </c>
       <c r="D29">
-        <v>1.3353893612829499E-2</v>
+        <v>2.4556421413704801E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1419,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>0.93555555555555503</v>
+        <v>0.93629629629629596</v>
       </c>
       <c r="D30">
-        <v>1.8421970541401302E-2</v>
+        <v>1.87978926525177E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.93518518518518501</v>
+        <v>0.94259259259259198</v>
       </c>
       <c r="D31">
-        <v>1.39566249491976E-2</v>
+        <v>1.5625943044243602E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>0.87814814814814801</v>
+        <v>0.87518518518518496</v>
       </c>
       <c r="D32">
-        <v>2.4690123425924301E-2</v>
+        <v>2.09054308024741E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1461,10 +1461,10 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>0.90962962962962901</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D33">
-        <v>1.20811158742963E-2</v>
+        <v>1.22053755950252E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>0.95629629629629598</v>
+        <v>0.96111111111111103</v>
       </c>
       <c r="D34">
-        <v>8.2485397967851804E-3</v>
+        <v>4.8290388186686302E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>0.91222222222222205</v>
+        <v>0.91962962962962902</v>
       </c>
       <c r="D35">
-        <v>1.7157384921334E-2</v>
+        <v>6.3720927904019403E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>0.942962962962962</v>
+        <v>0.93222222222222195</v>
       </c>
       <c r="D36">
-        <v>7.4443523119414098E-3</v>
+        <v>8.4943295860590295E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1517,10 +1517,10 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.87777777777777699</v>
+        <v>0.86481481481481404</v>
       </c>
       <c r="D37">
-        <v>2.1754333563834698E-2</v>
+        <v>8.0294382921032598E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>0.86481481481481404</v>
+        <v>0.862222222222222</v>
       </c>
       <c r="D38">
-        <v>1.5669774667634199E-2</v>
+        <v>2.00342642019237E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1545,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>0.93370370370370304</v>
+        <v>0.94</v>
       </c>
       <c r="D39">
-        <v>1.7109347351779401E-2</v>
+        <v>1.88707247449733E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>0.94148148148148103</v>
+        <v>0.93740740740740702</v>
       </c>
       <c r="D40">
-        <v>1.42772853832565E-2</v>
+        <v>1.5730933764144701E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1573,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.87629629629629602</v>
+        <v>0.87814814814814801</v>
       </c>
       <c r="D41">
-        <v>2.41281444072627E-2</v>
+        <v>2.2510476146700299E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>0.91185185185185103</v>
+        <v>0.901481481481481</v>
       </c>
       <c r="D42">
-        <v>1.1148086624661E-2</v>
+        <v>1.13190420666193E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1601,10 +1601,10 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0.95444444444444398</v>
+        <v>0.96</v>
       </c>
       <c r="D43">
-        <v>1.12704622627428E-2</v>
+        <v>8.5746940020668405E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1615,10 +1615,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>0.913333333333333</v>
+        <v>0.919259259259259</v>
       </c>
       <c r="D44">
-        <v>1.47870109464275E-2</v>
+        <v>5.9259259259259499E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>0.94111111111111101</v>
+        <v>0.92925925925925901</v>
       </c>
       <c r="D45">
-        <v>8.0635337248434209E-3</v>
+        <v>1.0566920457545899E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,10 +1643,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>0.87703703703703695</v>
+        <v>0.86629629629629601</v>
       </c>
       <c r="D46">
-        <v>2.00342642019237E-2</v>
+        <v>1.03703703703704E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.88074074074074005</v>
+        <v>0.73703703703703705</v>
       </c>
       <c r="D47">
-        <v>1.3230052666290199E-2</v>
+        <v>5.6643665145339799E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>0.95222222222222197</v>
+        <v>0.73111111111111104</v>
       </c>
       <c r="D48">
-        <v>1.6538602638345199E-2</v>
+        <v>6.8693470337005203E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,13 +1682,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.95703703703703602</v>
+        <v>0.66185185185185103</v>
       </c>
       <c r="D49">
-        <v>6.2415924245750702E-3</v>
+        <v>1.48887046238828E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1696,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.89592592592592502</v>
+        <v>0.73296296296296304</v>
       </c>
       <c r="D50">
-        <v>2.0931660964362601E-2</v>
+        <v>7.1082170036650794E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>0.91666666666666596</v>
+        <v>0.73592592592592498</v>
       </c>
       <c r="D51">
-        <v>1.07343531453255E-2</v>
+        <v>2.5217843748961698E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,13 +1724,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>0.97555555555555495</v>
+        <v>0.76555555555555499</v>
       </c>
       <c r="D52">
-        <v>8.0635337248434209E-3</v>
+        <v>1.13915233327627E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>0.92555555555555502</v>
+        <v>0.781481481481481</v>
       </c>
       <c r="D53">
-        <v>1.0304020550550699E-2</v>
+        <v>1.31989108749669E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1752,13 +1752,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>0.95629629629629598</v>
+        <v>0.655555555555555</v>
       </c>
       <c r="D54">
-        <v>1.1148086624661E-2</v>
+        <v>4.8855207252862597E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>0.88518518518518496</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="D55">
-        <v>1.9702868264104299E-2</v>
+        <v>9.6545262205459795E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>0.88148148148148098</v>
+        <v>0.72037037037036999</v>
       </c>
       <c r="D56">
-        <v>1.23949633560604E-2</v>
+        <v>5.9605470146040999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1794,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>0.95259259259259199</v>
+        <v>0.73518518518518505</v>
       </c>
       <c r="D57">
-        <v>1.5956043872991099E-2</v>
+        <v>8.1984976374735799E-3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1808,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>0.95740740740740704</v>
+        <v>0.65666666666666595</v>
       </c>
       <c r="D58">
-        <v>6.3071801355282899E-3</v>
+        <v>2.2789066759874299E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1822,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>0.89666666666666595</v>
+        <v>0.77148148148148099</v>
       </c>
       <c r="D59">
-        <v>2.0231852272218701E-2</v>
+        <v>2.6774473439893001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>0.91555555555555501</v>
+        <v>0.74962962962962898</v>
       </c>
       <c r="D60">
-        <v>1.17472233534472E-2</v>
+        <v>3.58590442739544E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1850,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>0.97592592592592597</v>
+        <v>0.77074074074073995</v>
       </c>
       <c r="D61">
-        <v>8.4457438896232504E-3</v>
+        <v>1.3877773329774201E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1864,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>0.92592592592592504</v>
+        <v>0.76444444444444404</v>
       </c>
       <c r="D62">
-        <v>1.0670266882139101E-2</v>
+        <v>1.27978907727192E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1878,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>0.95703703703703702</v>
+        <v>0.55666666666666598</v>
       </c>
       <c r="D63">
-        <v>1.23617179765026E-2</v>
+        <v>9.4466954470695405E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,13 +1892,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>0.88481481481481405</v>
+        <v>0.67370370370370303</v>
       </c>
       <c r="D64">
-        <v>1.9924411342685501E-2</v>
+        <v>6.8417342718323101E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>0.88111111111111096</v>
+        <v>0.78222222222222204</v>
       </c>
       <c r="D65">
-        <v>1.27978907727192E-2</v>
+        <v>4.7641205896934699E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,13 +1920,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>0.95259259259259199</v>
+        <v>0.74</v>
       </c>
       <c r="D66">
-        <v>1.5956043872991099E-2</v>
+        <v>2.1551609668112801E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,13 +1934,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>0.95703703703703602</v>
+        <v>0.637777777777777</v>
       </c>
       <c r="D67">
-        <v>6.1307205026840004E-3</v>
+        <v>2.1992641243412599E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1948,13 +1948,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.89592592592592502</v>
+        <v>0.79111111111111099</v>
       </c>
       <c r="D68">
-        <v>2.0434243295012901E-2</v>
+        <v>1.7505633034217E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1962,13 +1962,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>0.91592592592592603</v>
+        <v>0.74962962962962898</v>
       </c>
       <c r="D69">
-        <v>1.13915233327627E-2</v>
+        <v>1.49713947640057E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,13 +1976,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>0.97740740740740695</v>
+        <v>0.79444444444444395</v>
       </c>
       <c r="D70">
-        <v>8.6384472516226798E-3</v>
+        <v>3.4585533422011101E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.92481481481481398</v>
+        <v>0.76444444444444404</v>
       </c>
       <c r="D71">
-        <v>1.08992140515275E-2</v>
+        <v>2.1577054316488101E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,13 +2004,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>0.95703703703703702</v>
+        <v>0.61925925925925895</v>
       </c>
       <c r="D72">
-        <v>1.23617179765026E-2</v>
+        <v>6.1937177783376103E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,13 +2018,13 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.88592592592592501</v>
+        <v>0.73777777777777698</v>
       </c>
       <c r="D73">
-        <v>1.9337448121787601E-2</v>
+        <v>1.8761370580613199E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,13 +2032,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.88111111111111096</v>
+        <v>0.70481481481481401</v>
       </c>
       <c r="D74">
-        <v>1.29046306593958E-2</v>
+        <v>0.10943551383003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>0.95222222222222197</v>
+        <v>0.74037037037037001</v>
       </c>
       <c r="D75">
-        <v>1.6538602638345199E-2</v>
+        <v>2.0634649299532001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,13 +2060,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>0.95740740740740704</v>
+        <v>0.65444444444444405</v>
       </c>
       <c r="D76">
-        <v>6.3071801355282899E-3</v>
+        <v>1.4515494772048399E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,13 +2074,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>0.89592592592592502</v>
+        <v>0.78444444444444394</v>
       </c>
       <c r="D77">
-        <v>2.0931660964362601E-2</v>
+        <v>2.7755546659548401E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2088,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0.91629629629629605</v>
+        <v>0.74777777777777699</v>
       </c>
       <c r="D78">
-        <v>1.1074012139056301E-2</v>
+        <v>2.1608817993799701E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,13 +2102,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>0.976296296296296</v>
+        <v>0.76629629629629603</v>
       </c>
       <c r="D79">
-        <v>8.8734433708970006E-3</v>
+        <v>1.47870109464274E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,13 +2116,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>0.92592592592592504</v>
+        <v>0.76851851851851805</v>
       </c>
       <c r="D80">
-        <v>1.0670266882139101E-2</v>
+        <v>3.2814898419758001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2130,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>0.95703703703703702</v>
+        <v>0.63740740740740698</v>
       </c>
       <c r="D81">
-        <v>1.23617179765026E-2</v>
+        <v>7.3342685524122E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2144,13 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>0.88555555555555499</v>
+        <v>0.62851851851851803</v>
       </c>
       <c r="D82">
-        <v>1.9294838929823799E-2</v>
+        <v>7.4181403723818803E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2158,13 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>0.88148148148148098</v>
+        <v>0.76481481481481395</v>
       </c>
       <c r="D83">
-        <v>1.23949633560604E-2</v>
+        <v>2.80113635573171E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,13 +2172,13 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>0.95296296296296301</v>
+        <v>0.73962962962962897</v>
       </c>
       <c r="D84">
-        <v>1.6254154264808598E-2</v>
+        <v>6.2635313056621502E-3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,13 +2186,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>0.95740740740740704</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D85">
-        <v>6.3071801355282899E-3</v>
+        <v>5.9949681689772702E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2200,13 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>0.89592592592592502</v>
+        <v>0.78185185185185102</v>
       </c>
       <c r="D86">
-        <v>2.0400650894696899E-2</v>
+        <v>2.83617625467802E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2214,13 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>0.91629629629629605</v>
+        <v>0.74888888888888805</v>
       </c>
       <c r="D87">
-        <v>1.1074012139056301E-2</v>
+        <v>3.4318767136623303E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2228,13 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>0.97555555555555495</v>
+        <v>0.76851851851851805</v>
       </c>
       <c r="D88">
-        <v>8.0635337248434209E-3</v>
+        <v>2.5310147501140499E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.92629629629629595</v>
+        <v>0.76296296296296195</v>
       </c>
       <c r="D89">
-        <v>8.3968770731515808E-3</v>
+        <v>1.9492884988060399E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2256,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C90">
-        <v>0.956666666666666</v>
+        <v>0.66518518518518499</v>
       </c>
       <c r="D90">
-        <v>1.2261441005368001E-2</v>
+        <v>2.39855923832476E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2270,13 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>0.88555555555555499</v>
+        <v>0.65925925925925899</v>
       </c>
       <c r="D91">
-        <v>1.9294838929823799E-2</v>
+        <v>0.105089941229403</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2284,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>0.726296296296296</v>
+        <v>0.81555555555555503</v>
       </c>
       <c r="D92">
-        <v>7.1217127762175994E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>0.73851851851851802</v>
+        <v>0.83296296296296202</v>
       </c>
       <c r="D93">
-        <v>1.7308624363774699E-2</v>
+        <v>3.1216751860304402E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2312,13 +2312,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.77074074074073995</v>
+        <v>0.80666666666666598</v>
       </c>
       <c r="D94">
-        <v>1.6497079593570399E-2</v>
+        <v>1.6834545447945898E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,13 +2326,13 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>0.77518518518518498</v>
+        <v>0.81814814814814796</v>
       </c>
       <c r="D95">
-        <v>3.0216411932401599E-2</v>
+        <v>1.01700223835155E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,13 +2340,13 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.72333333333333305</v>
+        <v>0.80407407407407405</v>
       </c>
       <c r="D96">
-        <v>4.6813408323925797E-2</v>
+        <v>2.5157937329987601E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,13 +2354,13 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>0.75851851851851804</v>
+        <v>0.84</v>
       </c>
       <c r="D97">
-        <v>8.8113905580520808E-3</v>
+        <v>2.4076922908362899E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,13 +2368,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>0.64074074074073994</v>
+        <v>0.807037037037037</v>
       </c>
       <c r="D98">
-        <v>1.91377936040945E-2</v>
+        <v>7.8041879650761004E-3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2382,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.61518518518518495</v>
+        <v>0.82148148148148104</v>
       </c>
       <c r="D99">
-        <v>3.89047586666924E-2</v>
+        <v>1.48425665996399E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,13 +2396,13 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>0.75185185185185099</v>
+        <v>0.81740740740740703</v>
       </c>
       <c r="D100">
-        <v>2.1500630035111101E-2</v>
+        <v>7.4627561776332597E-3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101">
-        <v>0.78703703703703698</v>
+        <v>0.81814814814814796</v>
       </c>
       <c r="D101">
-        <v>2.3010703062235599E-2</v>
+        <v>1.81216738114445E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2424,13 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>0.73925925925925895</v>
+        <v>0.82925925925925903</v>
       </c>
       <c r="D102">
-        <v>1.6161054984645401E-2</v>
+        <v>1.9786237613619299E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,13 +2438,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>0.75296296296296295</v>
+        <v>0.81740740740740703</v>
       </c>
       <c r="D103">
-        <v>2.5488371161607799E-2</v>
+        <v>7.2766232238475901E-3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2452,13 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>0.77296296296296296</v>
+        <v>0.82037037037036997</v>
       </c>
       <c r="D104">
-        <v>2.1867539880185902E-2</v>
+        <v>1.37087077950531E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2466,13 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>0.73333333333333295</v>
+        <v>0.80481481481481398</v>
       </c>
       <c r="D105">
-        <v>5.0403039514678498E-2</v>
+        <v>2.1836152552568398E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,13 +2480,13 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>0.77185185185185101</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D106">
-        <v>2.3141480521204801E-2</v>
+        <v>2.3070239262811001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2494,13 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>0.64518518518518497</v>
+        <v>0.80037037037036995</v>
       </c>
       <c r="D107">
-        <v>2.2178970254192298E-2</v>
+        <v>1.35273943464812E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,13 +2508,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>0.60333333333333306</v>
+        <v>0.82962962962962905</v>
       </c>
       <c r="D108">
-        <v>0.105138226346233</v>
+        <v>1.41032835293776E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>0.66185185185185103</v>
+        <v>0.81444444444444397</v>
       </c>
       <c r="D109">
-        <v>9.1449237082454393E-2</v>
+        <v>4.2873470010334298E-3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>0.74296296296296205</v>
+        <v>0.81074074074073998</v>
       </c>
       <c r="D110">
-        <v>5.3497689141534098E-2</v>
+        <v>2.387093784344E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2550,13 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>0.72925925925925905</v>
+        <v>0.83740740740740705</v>
       </c>
       <c r="D111">
-        <v>6.8693470337005298E-3</v>
+        <v>3.2083567152159501E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,13 +2564,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.75666666666666604</v>
+        <v>0.82</v>
       </c>
       <c r="D112">
-        <v>3.0734046571444001E-2</v>
+        <v>5.5431961285539698E-3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2578,13 +2578,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>0.74666666666666603</v>
+        <v>0.81666666666666599</v>
       </c>
       <c r="D113">
-        <v>7.0520308100541704E-2</v>
+        <v>1.6228816518671502E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2592,13 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>0.71555555555555495</v>
+        <v>0.80814814814814795</v>
       </c>
       <c r="D114">
-        <v>1.8015387417800399E-2</v>
+        <v>1.9478805618229102E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,13 +2606,13 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.77666666666666595</v>
+        <v>0.84777777777777696</v>
       </c>
       <c r="D115">
-        <v>2.7029425615583601E-2</v>
+        <v>1.9612151547961001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,13 +2620,13 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116">
-        <v>0.62962962962962898</v>
+        <v>0.79851851851851796</v>
       </c>
       <c r="D116">
-        <v>1.5493704195075401E-2</v>
+        <v>1.47870109464274E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2634,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>0.651481481481481</v>
+        <v>0.82</v>
       </c>
       <c r="D117">
-        <v>3.4454399198689499E-2</v>
+        <v>9.0267093384843993E-3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,13 +2648,13 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.68222222222222195</v>
+        <v>0.812962962962963</v>
       </c>
       <c r="D118">
-        <v>4.73089254869207E-2</v>
+        <v>7.1242163191375298E-3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>0.66185185185185103</v>
+        <v>0.81222222222222196</v>
       </c>
       <c r="D119">
-        <v>0.121742042156899</v>
+        <v>9.4135296497324591E-3</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2676,13 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.73</v>
+        <v>0.82888888888888901</v>
       </c>
       <c r="D120">
-        <v>7.6263926970274298E-3</v>
+        <v>1.6629588385661899E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2690,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>0.76</v>
+        <v>0.81592592592592506</v>
       </c>
       <c r="D121">
-        <v>1.48887046238828E-2</v>
+        <v>6.04055793714817E-3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>0.77629629629629604</v>
+        <v>0.81185185185185105</v>
       </c>
       <c r="D122">
-        <v>4.7580701785930997E-2</v>
+        <v>9.7005932249694393E-3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2718,13 +2718,13 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>0.73592592592592598</v>
+        <v>0.79592592592592504</v>
       </c>
       <c r="D123">
-        <v>3.4755662909120202E-2</v>
+        <v>1.6948238797996298E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,13 +2732,13 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>0.761851851851851</v>
+        <v>0.82777777777777695</v>
       </c>
       <c r="D124">
-        <v>6.88928712508828E-3</v>
+        <v>1.7800910875108E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125">
-        <v>0.64592592592592502</v>
+        <v>0.80222222222222195</v>
       </c>
       <c r="D125">
-        <v>7.9780219364955808E-3</v>
+        <v>4.5961754244410796E-3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,13 +2760,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>0.64222222222222203</v>
+        <v>0.80222222222222195</v>
       </c>
       <c r="D126">
-        <v>2.6251918735806401E-2</v>
+        <v>1.46002987736496E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,13 +2774,13 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>0.688888888888888</v>
+        <v>0.81962962962962904</v>
       </c>
       <c r="D127">
-        <v>2.3570226039551501E-2</v>
+        <v>1.0579893968211599E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,13 +2788,13 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128">
-        <v>0.72296296296296203</v>
+        <v>0.81777777777777705</v>
       </c>
       <c r="D128">
-        <v>0.117988397746318</v>
+        <v>1.29152561290093E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,13 +2802,13 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>0.73703703703703705</v>
+        <v>0.82222222222222197</v>
       </c>
       <c r="D129">
-        <v>1.63131226263298E-2</v>
+        <v>1.7292766711005499E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2816,13 +2816,13 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>0.73962962962962897</v>
+        <v>0.81740740740740703</v>
       </c>
       <c r="D130">
-        <v>4.8242073629130001E-2</v>
+        <v>1.29682528888974E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,13 +2830,13 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>0.787407407407407</v>
+        <v>0.81259259259259198</v>
       </c>
       <c r="D131">
-        <v>1.2744185580803801E-2</v>
+        <v>8.0635337248434105E-3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2844,13 +2844,13 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>0.74296296296296205</v>
+        <v>0.80629629629629596</v>
       </c>
       <c r="D132">
-        <v>4.0085642199700497E-2</v>
+        <v>1.97584869160728E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2858,13 +2858,13 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>0.75629629629629602</v>
+        <v>0.83148148148148104</v>
       </c>
       <c r="D133">
-        <v>4.4752022124424397E-3</v>
+        <v>8.0294382921032598E-3</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,13 +2872,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134">
-        <v>0.62666666666666604</v>
+        <v>0.80925925925925901</v>
       </c>
       <c r="D134">
-        <v>3.90841658022901E-2</v>
+        <v>1.8481444370184601E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2886,13 +2886,13 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>0.66629629629629605</v>
+        <v>0.818888888888889</v>
       </c>
       <c r="D135">
-        <v>1.6907721793352998E-2</v>
+        <v>6.8693470337005099E-3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2900,699 +2900,699 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0.68333333333333302</v>
+        <v>0.81370370370370304</v>
       </c>
       <c r="D136">
-        <v>7.9633936145391104E-2</v>
+        <v>6.6872111426917701E-3</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <v>0.80999999999999905</v>
-      </c>
-      <c r="D137">
-        <v>1.43252441524546E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138">
-        <v>0.81740740740740703</v>
-      </c>
-      <c r="D138">
-        <v>1.6211902687584601E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <v>0.82259259259259199</v>
-      </c>
-      <c r="D139">
-        <v>5.5431961285539498E-3</v>
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140">
-        <v>0.82370370370370305</v>
-      </c>
-      <c r="D140">
-        <v>1.00342349512178E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.81074074074073998</v>
+        <v>0.88</v>
       </c>
       <c r="D141">
-        <v>2.3111823350848399E-2</v>
+        <v>1.64554517714985E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>0.81259259259259198</v>
+        <v>0.94814814814814796</v>
       </c>
       <c r="D142">
-        <v>1.8496282946938902E-2</v>
+        <v>1.7529125283258E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>0.71074074074074001</v>
+        <v>0.94740740740740703</v>
       </c>
       <c r="D143">
-        <v>1.5687273025590601E-2</v>
+        <v>1.01159261361093E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.81962962962962904</v>
+        <v>0.89333333333333298</v>
       </c>
       <c r="D144">
-        <v>7.9951974610825392E-3</v>
+        <v>2.5217843748961698E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145">
-        <v>0.81037037037036996</v>
+        <v>0.90333333333333299</v>
       </c>
       <c r="D145">
-        <v>3.98901096824776E-3</v>
+        <v>1.48794884641486E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146">
-        <v>0.79444444444444395</v>
+        <v>0.97037037037036999</v>
       </c>
       <c r="D146">
-        <v>2.0150326679608001E-2</v>
+        <v>5.9720427765174297E-3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>0.82703703703703701</v>
+        <v>0.91518518518518499</v>
       </c>
       <c r="D147">
-        <v>1.39369538683161E-2</v>
+        <v>1.54671207539415E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>0.81555555555555503</v>
+        <v>0.94555555555555504</v>
       </c>
       <c r="D148">
-        <v>2.7715980642770001E-3</v>
+        <v>1.10863922571079E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>0.81111111111111101</v>
+        <v>0.88518518518518496</v>
       </c>
       <c r="D149">
-        <v>1.2115131284293401E-2</v>
+        <v>1.7053132493661201E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>0.82666666666666599</v>
+        <v>0.88259259259259204</v>
       </c>
       <c r="D150">
-        <v>9.6296296296296199E-3</v>
+        <v>1.56083759301521E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151">
-        <v>0.83333333333333304</v>
+        <v>0.95074074074074</v>
       </c>
       <c r="D151">
-        <v>1.1712139482104901E-3</v>
+        <v>1.5956043872991099E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>0.70296296296296301</v>
+        <v>0.948888888888888</v>
       </c>
       <c r="D152">
-        <v>1.93374481217875E-2</v>
+        <v>7.9089468533565192E-3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>0.82444444444444398</v>
+        <v>0.88925925925925897</v>
       </c>
       <c r="D153">
-        <v>3.7770514915501999E-3</v>
+        <v>2.5857051371417802E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>0.81148148148148103</v>
+        <v>0.90481481481481396</v>
       </c>
       <c r="D154">
-        <v>5.0239481356483401E-3</v>
+        <v>1.17472233534472E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>0.80074074074073998</v>
+        <v>0.97111111111111104</v>
       </c>
       <c r="D155">
-        <v>1.8761370580613199E-2</v>
+        <v>8.1649658092772595E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>0.81074074074073998</v>
+        <v>0.91518518518518499</v>
       </c>
       <c r="D156">
-        <v>2.0898868118023502E-2</v>
+        <v>1.93658021665205E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.81666666666666599</v>
+        <v>0.94777777777777705</v>
       </c>
       <c r="D157">
-        <v>7.76895443089003E-3</v>
+        <v>1.05018125027835E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>0.82222222222222197</v>
+        <v>0.88481481481481405</v>
       </c>
       <c r="D158">
-        <v>1.4151831981142801E-2</v>
+        <v>2.4014170485107102E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159">
-        <v>0.824814814814814</v>
+        <v>0.88111111111111096</v>
       </c>
       <c r="D159">
-        <v>1.5252785394054801E-2</v>
+        <v>1.34256066373273E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>0.82666666666666599</v>
+        <v>0.95185185185185095</v>
       </c>
       <c r="D160">
-        <v>2.3991310726965399E-2</v>
+        <v>1.6058876584206499E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>0.70703703703703602</v>
+        <v>0.94629629629629597</v>
       </c>
       <c r="D161">
-        <v>2.7150952308312899E-2</v>
+        <v>9.8688241440549797E-3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>0.81962962962962904</v>
+        <v>0.89111111111111097</v>
       </c>
       <c r="D162">
-        <v>5.8090322745770898E-3</v>
+        <v>2.3052394547548798E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.81259259259259198</v>
+        <v>0.90629629629629604</v>
       </c>
       <c r="D163">
-        <v>1.11971973761711E-2</v>
+        <v>9.2666637060717007E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>0.79962962962962902</v>
+        <v>0.97185185185185097</v>
       </c>
       <c r="D164">
-        <v>2.5962936545662001E-2</v>
+        <v>7.2577473860242396E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.83074074074074</v>
+        <v>0.91296296296296298</v>
       </c>
       <c r="D165">
-        <v>2.4275510530628E-2</v>
+        <v>1.8407072058946899E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>0.818888888888889</v>
+        <v>0.94666666666666599</v>
       </c>
       <c r="D166">
-        <v>5.4180514216028803E-3</v>
+        <v>1.09494411104403E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>0.80999999999999905</v>
+        <v>0.88333333333333297</v>
       </c>
       <c r="D167">
-        <v>7.2766232238475996E-3</v>
+        <v>1.9065981742568499E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.82074074074073999</v>
+        <v>0.88222222222222202</v>
       </c>
       <c r="D168">
-        <v>2.7947628859131001E-2</v>
+        <v>1.4842566599639799E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>0.84370370370370296</v>
+        <v>0.948888888888888</v>
       </c>
       <c r="D169">
-        <v>1.5826563421645502E-2</v>
+        <v>1.5956043872991099E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>0.71444444444444399</v>
+        <v>0.94851851851851798</v>
       </c>
       <c r="D170">
-        <v>3.5705701496281501E-2</v>
+        <v>6.1307205026840299E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171">
-        <v>0.82148148148148104</v>
+        <v>0.89</v>
       </c>
       <c r="D171">
-        <v>8.3312754660755401E-3</v>
+        <v>2.0238631247872899E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>0.81074074074073998</v>
+        <v>0.90333333333333299</v>
       </c>
       <c r="D172">
-        <v>3.5908739684565199E-3</v>
+        <v>1.25270626113242E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>0.80851851851851797</v>
+        <v>0.974444444444444</v>
       </c>
       <c r="D173">
-        <v>1.4934700113819199E-2</v>
+        <v>7.97802193649556E-3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>0.82814814814814797</v>
+        <v>0.91629629629629605</v>
       </c>
       <c r="D174">
-        <v>1.33230412952629E-2</v>
+        <v>1.9681970749016901E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175">
-        <v>0.82370370370370305</v>
+        <v>0.94370370370370305</v>
       </c>
       <c r="D175">
-        <v>1.01700223835155E-2</v>
+        <v>1.22053755950252E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176">
-        <v>0.81814814814814796</v>
+        <v>0.88740740740740698</v>
       </c>
       <c r="D176">
-        <v>1.3877773329774201E-2</v>
+        <v>1.9924411342685602E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177">
-        <v>0.82777777777777695</v>
+        <v>0.87740740740740697</v>
       </c>
       <c r="D177">
-        <v>2.0654582953479501E-2</v>
+        <v>1.4506041501900799E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178">
-        <v>0.82629629629629597</v>
+        <v>0.94925925925925903</v>
       </c>
       <c r="D178">
-        <v>1.5861194892862002E-2</v>
+        <v>1.6084482037487701E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>0.71148148148148105</v>
+        <v>0.94777777777777705</v>
       </c>
       <c r="D179">
-        <v>2.1640535048876301E-2</v>
+        <v>8.2318928781084499E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180">
-        <v>0.81407407407407395</v>
+        <v>0.89629629629629604</v>
       </c>
       <c r="D180">
-        <v>4.4752022124424197E-3</v>
+        <v>1.8481444370184601E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181">
-        <v>0.80740740740740702</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D181">
-        <v>6.92899516069249E-3</v>
+        <v>1.15707402606024E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>0.97037037037036999</v>
+      </c>
+      <c r="D182">
+        <v>7.4074074074074103E-3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>0.91518518518518499</v>
+      </c>
+      <c r="D183">
+        <v>1.7189335386477499E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.94518518518518502</v>
+      </c>
+      <c r="D184">
+        <v>1.10863922571079E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>0.887777777777777</v>
+      </c>
+      <c r="D185">
+        <v>2.0440955150439401E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,13 +3600,13 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186">
-        <v>0.88074074074074005</v>
+        <v>0.87666666666666604</v>
       </c>
       <c r="D186">
-        <v>1.15113113095704E-2</v>
+        <v>1.05148663456136E-2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3614,13 +3614,13 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>0.95333333333333303</v>
+        <v>0.95148148148148104</v>
       </c>
       <c r="D187">
-        <v>1.8533327412143401E-2</v>
+        <v>1.6371878596518698E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3628,13 +3628,13 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>0.94925925925925903</v>
+        <v>0.95407407407407396</v>
       </c>
       <c r="D188">
-        <v>9.0418930486916294E-3</v>
+        <v>9.25184888651614E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3642,13 +3642,13 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>0.893703703703703</v>
+        <v>0.89111111111111097</v>
       </c>
       <c r="D189">
-        <v>2.1359808674512901E-2</v>
+        <v>2.17669411183927E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3656,13 +3656,13 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>0.90962962962962901</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D190">
-        <v>1.38282627426625E-2</v>
+        <v>1.15113113095704E-2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,13 +3670,13 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>0.97333333333333305</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D191">
-        <v>7.4627561776332797E-3</v>
+        <v>4.8290388186686198E-3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3684,13 +3684,13 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192">
-        <v>0.91962962962962902</v>
+        <v>0.92222222222222205</v>
       </c>
       <c r="D192">
-        <v>1.0708764662815499E-2</v>
+        <v>1.85924450340905E-2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3698,13 +3698,13 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>0.94851851851851798</v>
+        <v>0.95333333333333303</v>
       </c>
       <c r="D193">
-        <v>1.25270626113242E-2</v>
+        <v>8.9504044248848898E-3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3712,13 +3712,13 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>0.88814814814814802</v>
+        <v>0.88592592592592501</v>
       </c>
       <c r="D194">
-        <v>2.6309334274337799E-2</v>
+        <v>2.20549258236435E-2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,13 +3726,13 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>0.88370370370370299</v>
+        <v>0.87666666666666604</v>
       </c>
       <c r="D195">
-        <v>1.14993886638963E-2</v>
+        <v>1.05148663456136E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3740,13 +3740,13 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>0.95592592592592596</v>
+        <v>0.95148148148148104</v>
       </c>
       <c r="D196">
-        <v>1.7268952928703299E-2</v>
+        <v>1.6371878596518698E-2</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3754,13 +3754,13 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>0.94851851851851798</v>
+        <v>0.95407407407407396</v>
       </c>
       <c r="D197">
-        <v>1.1851851851851799E-2</v>
+        <v>9.25184888651614E-3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3768,13 +3768,13 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>0.90111111111111097</v>
+        <v>0.89111111111111097</v>
       </c>
       <c r="D198">
-        <v>2.0773783203526099E-2</v>
+        <v>2.17669411183927E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3782,13 +3782,13 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199">
-        <v>0.913333333333333</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D199">
-        <v>1.49255123552665E-2</v>
+        <v>1.15113113095704E-2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3796,13 +3796,13 @@
         <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200">
         <v>0.97592592592592597</v>
       </c>
       <c r="D200">
-        <v>7.5903339007107997E-3</v>
+        <v>4.8290388186686198E-3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3810,13 +3810,13 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>0.91518518518518499</v>
+        <v>0.92222222222222205</v>
       </c>
       <c r="D201">
-        <v>1.3425606637327199E-2</v>
+        <v>1.85924450340905E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3824,13 +3824,13 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>0.94851851851851798</v>
+        <v>0.95333333333333303</v>
       </c>
       <c r="D202">
-        <v>1.01023568125821E-2</v>
+        <v>8.9504044248848898E-3</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3838,13 +3838,13 @@
         <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>0.88740740740740698</v>
+        <v>0.88592592592592501</v>
       </c>
       <c r="D203">
-        <v>2.6820543689232101E-2</v>
+        <v>2.20549258236435E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,13 +3852,13 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>0.88259259259259204</v>
+        <v>0.87666666666666604</v>
       </c>
       <c r="D204">
-        <v>1.2592592592592501E-2</v>
+        <v>1.05148663456136E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3866,13 +3866,13 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>0.95518518518518503</v>
+        <v>0.95148148148148104</v>
       </c>
       <c r="D205">
-        <v>1.6785583990554999E-2</v>
+        <v>1.6371878596518698E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3880,13 +3880,13 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>0.94962962962962905</v>
+        <v>0.95407407407407396</v>
       </c>
       <c r="D206">
-        <v>7.06621630679217E-3</v>
+        <v>9.25184888651614E-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3894,13 +3894,13 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>0.89777777777777701</v>
+        <v>0.89111111111111097</v>
       </c>
       <c r="D207">
-        <v>2.1955185681894699E-2</v>
+        <v>2.17669411183927E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,13 +3908,13 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>0.91222222222222205</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D208">
-        <v>1.4656562175858701E-2</v>
+        <v>1.15113113095704E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,13 +3922,13 @@
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>0.97666666666666602</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D209">
-        <v>6.3720927904019299E-3</v>
+        <v>4.8290388186686198E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3936,13 +3936,13 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210">
-        <v>0.91444444444444395</v>
+        <v>0.92222222222222205</v>
       </c>
       <c r="D210">
-        <v>1.59474445493414E-2</v>
+        <v>1.85924450340905E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3950,13 +3950,13 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211">
-        <v>0.94851851851851798</v>
+        <v>0.95333333333333303</v>
       </c>
       <c r="D211">
-        <v>1.1135775095091E-2</v>
+        <v>8.9504044248848898E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3964,13 +3964,13 @@
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212">
-        <v>0.88888888888888895</v>
+        <v>0.88592592592592501</v>
       </c>
       <c r="D212">
-        <v>2.7292049521393399E-2</v>
+        <v>2.20549258236435E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3978,13 +3978,13 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213">
-        <v>0.88296296296296295</v>
+        <v>0.87666666666666604</v>
       </c>
       <c r="D213">
-        <v>1.45532464476951E-2</v>
+        <v>1.05148663456136E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3992,13 +3992,13 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>0.95740740740740704</v>
+        <v>0.95148148148148104</v>
       </c>
       <c r="D214">
-        <v>1.37087077950531E-2</v>
+        <v>1.6371878596518698E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -4006,13 +4006,13 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>0.94962962962962905</v>
+        <v>0.95407407407407396</v>
       </c>
       <c r="D215">
-        <v>7.8041879650760796E-3</v>
+        <v>9.25184888651614E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -4020,13 +4020,13 @@
         <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216">
-        <v>0.89777777777777701</v>
+        <v>0.89111111111111097</v>
       </c>
       <c r="D216">
-        <v>2.42132727832313E-2</v>
+        <v>2.17669411183927E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -4034,13 +4034,13 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>0.91703703703703698</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D217">
-        <v>1.5774473658553199E-2</v>
+        <v>1.15113113095704E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -4048,13 +4048,13 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>0.97518518518518504</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D218">
-        <v>6.4788354387169704E-3</v>
+        <v>4.8290388186686198E-3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,13 +4062,13 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219">
-        <v>0.91592592592592603</v>
+        <v>0.92222222222222205</v>
       </c>
       <c r="D219">
-        <v>1.05148663456136E-2</v>
+        <v>1.85924450340905E-2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,13 +4076,13 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>0.95</v>
+        <v>0.95333333333333303</v>
       </c>
       <c r="D220">
-        <v>1.0075163339804001E-2</v>
+        <v>8.9504044248848898E-3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,13 +4090,13 @@
         <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>0.88296296296296295</v>
+        <v>0.88592592592592501</v>
       </c>
       <c r="D221">
-        <v>2.77999911182151E-2</v>
+        <v>2.20549258236435E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -4104,13 +4104,13 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>0.88222222222222202</v>
+        <v>0.87666666666666604</v>
       </c>
       <c r="D222">
-        <v>1.38876542661131E-2</v>
+        <v>1.05148663456136E-2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4118,13 +4118,13 @@
         <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223">
-        <v>0.95444444444444398</v>
+        <v>0.95148148148148104</v>
       </c>
       <c r="D223">
-        <v>1.57831672241944E-2</v>
+        <v>1.6371878596518698E-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -4132,13 +4132,13 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224">
-        <v>0.94851851851851798</v>
+        <v>0.95407407407407396</v>
       </c>
       <c r="D224">
-        <v>1.23617179765026E-2</v>
+        <v>9.25184888651614E-3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -4146,13 +4146,13 @@
         <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225">
-        <v>0.89518518518518497</v>
+        <v>0.89111111111111097</v>
       </c>
       <c r="D225">
-        <v>2.1133840915092E-2</v>
+        <v>2.17669411183927E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -4160,13 +4160,13 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226">
-        <v>0.91518518518518499</v>
+        <v>0.90259259259259195</v>
       </c>
       <c r="D226">
-        <v>1.41227229369908E-2</v>
+        <v>1.15113113095704E-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,13 +4174,13 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227">
-        <v>0.97370370370370296</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D227">
-        <v>7.8915836120972294E-3</v>
+        <v>4.8290388186686198E-3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -4188,13 +4188,13 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228">
-        <v>0.91777777777777703</v>
+        <v>0.92222222222222205</v>
       </c>
       <c r="D228">
-        <v>1.32817933904007E-2</v>
+        <v>1.85924450340905E-2</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -4202,13 +4202,13 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229">
-        <v>0.95111111111111102</v>
+        <v>0.95333333333333303</v>
       </c>
       <c r="D229">
-        <v>1.2701057925542301E-2</v>
+        <v>8.9504044248848898E-3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -4216,13 +4216,13 @@
         <v>17</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>0.893703703703703</v>
+        <v>0.88592592592592501</v>
       </c>
       <c r="D230">
-        <v>2.9247536329480898E-2</v>
+        <v>2.20549258236435E-2</v>
       </c>
     </row>
   </sheetData>
